--- a/docs/Tidplansexempel.xlsx
+++ b/docs/Tidplansexempel.xlsx
@@ -93,7 +93,7 @@
     <t>Skriva tidplan</t>
   </si>
   <si>
-    <t>Skapa systemskiss (photoshop) ()</t>
+    <t>Skapa systemskiss (photoshop) (jobbar under varje lektionspass)</t>
   </si>
   <si>
     <t>Skriva rapport</t>
@@ -771,7 +771,7 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G18" activeCellId="0" pane="topLeft" sqref="G18"/>
+      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.2"/>
@@ -2554,8 +2554,8 @@
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="50" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
@@ -2617,8 +2617,8 @@
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="50" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
@@ -2678,8 +2678,8 @@
       </c>
       <c r="H5" s="54"/>
       <c r="I5" s="50" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
@@ -2788,52 +2788,52 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S7" s="56" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T7" s="56" t="n">
         <f aca="false">Basplan!H7</f>
@@ -2943,52 +2943,52 @@
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
       <c r="H8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="35" t="n">
         <f aca="false">Basplan!H15</f>
@@ -3055,56 +3055,56 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV8" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW8" s="56" t="e">
         <f aca="false">IF(SUM(H8:AV8)&lt;&gt;0;SUM(H8:AV8);"")</f>
@@ -3120,52 +3120,52 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T9" s="35" t="n">
         <f aca="false">Basplan!H16</f>
@@ -3232,56 +3232,56 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV9" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW9" s="56" t="e">
         <f aca="false">IF(SUM(H9:AV9)&lt;&gt;0;SUM(H9:AV9);"")</f>
@@ -3297,52 +3297,52 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T10" s="35" t="n">
         <f aca="false">Basplan!H17</f>
@@ -3409,56 +3409,56 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV10" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW10" s="56" t="e">
         <f aca="false">IF(SUM(H10:AV10)&lt;&gt;0;SUM(H10:AV10);"")</f>
@@ -3474,52 +3474,52 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T11" s="35" t="n">
         <f aca="false">Basplan!H18</f>
@@ -3586,56 +3586,56 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV11" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW11" s="56" t="e">
         <f aca="false">IF(SUM(H11:AV11)&lt;&gt;0;SUM(H11:AV11);"")</f>
@@ -3651,52 +3651,52 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T12" s="35" t="n">
         <f aca="false">Basplan!H19</f>
@@ -3763,56 +3763,56 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV12" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW12" s="56" t="e">
         <f aca="false">IF(SUM(H12:AV12)&lt;&gt;0;SUM(H12:AV12);"")</f>
@@ -3828,52 +3828,52 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T13" s="35" t="n">
         <f aca="false">Basplan!H20</f>
@@ -3940,56 +3940,56 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV13" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW13" s="56" t="e">
         <f aca="false">IF(SUM(H13:AV13)&lt;&gt;0;SUM(H13:AV13);"")</f>
@@ -4005,52 +4005,52 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T14" s="35" t="n">
         <f aca="false">Basplan!H21</f>
@@ -4117,56 +4117,56 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV14" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW14" s="56" t="e">
         <f aca="false">IF(SUM(H14:AV14)&lt;&gt;0;SUM(H14:AV14);"")</f>
@@ -4182,52 +4182,52 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T15" s="35" t="n">
         <f aca="false">Basplan!H22</f>
@@ -4294,56 +4294,56 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV15" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW15" s="56" t="e">
         <f aca="false">IF(SUM(H15:AV15)&lt;&gt;0;SUM(H15:AV15);"")</f>
@@ -4359,52 +4359,52 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T16" s="35" t="n">
         <f aca="false">Basplan!H23</f>
@@ -4471,56 +4471,56 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV16" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW16" s="56" t="e">
         <f aca="false">IF(SUM(H16:AV16)&lt;&gt;0;SUM(H16:AV16);"")</f>
@@ -4536,52 +4536,52 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T17" s="35" t="n">
         <f aca="false">Basplan!H24</f>
@@ -4648,56 +4648,56 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV17" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW17" s="56" t="e">
         <f aca="false">IF(SUM(H17:AV17)&lt;&gt;0;SUM(H17:AV17);"")</f>
@@ -4713,52 +4713,52 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T18" s="35" t="n">
         <f aca="false">Basplan!H25</f>
@@ -4825,56 +4825,56 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV18" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW18" s="56" t="e">
         <f aca="false">IF(SUM(H18:AV18)&lt;&gt;0;SUM(H18:AV18);"")</f>
@@ -4890,52 +4890,52 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T19" s="35" t="n">
         <f aca="false">Basplan!H26</f>
@@ -5002,56 +5002,56 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV19" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW19" s="56" t="e">
         <f aca="false">IF(SUM(H19:AV19)&lt;&gt;0;SUM(H19:AV19);"")</f>
@@ -5067,52 +5067,52 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T20" s="35" t="n">
         <f aca="false">Basplan!H27</f>
@@ -5179,56 +5179,56 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV20" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW20" s="56" t="e">
         <f aca="false">IF(SUM(H20:AV20)&lt;&gt;0;SUM(H20:AV20);"")</f>
@@ -5244,52 +5244,52 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T21" s="35" t="n">
         <f aca="false">Basplan!H28</f>
@@ -5356,56 +5356,56 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV21" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW21" s="56" t="e">
         <f aca="false">IF(SUM(H21:AV21)&lt;&gt;0;SUM(H21:AV21);"")</f>
@@ -5421,52 +5421,52 @@
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T22" s="35" t="n">
         <f aca="false">Basplan!H29</f>
@@ -5533,56 +5533,56 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV22" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW22" s="56" t="e">
         <f aca="false">IF(SUM(H22:AV22)&lt;&gt;0;SUM(H22:AV22);"")</f>
@@ -5598,52 +5598,52 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T23" s="35" t="n">
         <f aca="false">Basplan!H30</f>
@@ -5710,56 +5710,56 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV23" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW23" s="56" t="e">
         <f aca="false">IF(SUM(H23:AV23)&lt;&gt;0;SUM(H23:AV23);"")</f>
@@ -5775,52 +5775,52 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T24" s="35" t="n">
         <f aca="false">Basplan!H31</f>
@@ -5887,56 +5887,56 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV24" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW24" s="56" t="e">
         <f aca="false">IF(SUM(H24:AV24)&lt;&gt;0;SUM(H24:AV24);"")</f>
@@ -5952,52 +5952,52 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T25" s="35" t="n">
         <f aca="false">Basplan!H32</f>
@@ -6064,56 +6064,56 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV25" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW25" s="56" t="e">
         <f aca="false">IF(SUM(H25:AV25)&lt;&gt;0;SUM(H25:AV25);"")</f>
@@ -6129,52 +6129,52 @@
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T26" s="35" t="n">
         <f aca="false">Basplan!H33</f>
@@ -6241,56 +6241,56 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV26" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW26" s="56" t="e">
         <f aca="false">IF(SUM(H26:AV26)&lt;&gt;0;SUM(H26:AV26);"")</f>
@@ -6306,52 +6306,52 @@
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T27" s="35" t="n">
         <f aca="false">Basplan!H34</f>
@@ -6418,56 +6418,56 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV27" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW27" s="56" t="e">
         <f aca="false">IF(SUM(H27:AV27)&lt;&gt;0;SUM(H27:AV27);"")</f>
@@ -6483,52 +6483,52 @@
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T28" s="35" t="n">
         <f aca="false">Basplan!H35</f>
@@ -6595,56 +6595,56 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV28" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW28" s="56" t="e">
         <f aca="false">IF(SUM(H28:AV28)&lt;&gt;0;SUM(H28:AV28);"")</f>
@@ -6660,52 +6660,52 @@
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T29" s="35" t="n">
         <f aca="false">Basplan!H36</f>
@@ -6772,56 +6772,56 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV29" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW29" s="56" t="e">
         <f aca="false">IF(SUM(H29:AV29)&lt;&gt;0;SUM(H29:AV29);"")</f>
@@ -6837,52 +6837,52 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T30" s="35" t="n">
         <f aca="false">Basplan!H37</f>
@@ -6949,56 +6949,56 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV30" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW30" s="56" t="e">
         <f aca="false">IF(SUM(H30:AV30)&lt;&gt;0;SUM(H30:AV30);"")</f>
@@ -7014,52 +7014,52 @@
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
       <c r="H31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T31" s="35" t="n">
         <f aca="false">Basplan!H38</f>
@@ -7126,56 +7126,56 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AL31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AM31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AN31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AP31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AR31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AT31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AU31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AV31" s="35" t="e">
-        <f aca="false">Basplan!#REF!</f>
-        <v>#REF!</v>
+        <f aca="false">basplan!#ref!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW31" s="56" t="e">
         <f aca="false">IF(SUM(H31:AV31)&lt;&gt;0;SUM(H31:AV31);"")</f>
